--- a/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapTangCaNgoaiLe_SK2.xlsx
+++ b/SmartBooks.HumanResource/bin/x86/Debug/Teamleate/NhapTangCaNgoaiLe_SK2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCodeHR\SnK_Dev\SmartBooks.HumanResource\bin\x86\Debug\Teamleate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33A37AB-461B-47E5-8164-C250B7854EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A94CE-8301-43A3-A1D5-923C32C66D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,22 +152,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -477,15 +486,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" customWidth="1"/>
@@ -493,11 +504,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:8">
       <c r="D2" s="4" t="s">
@@ -532,22 +543,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" hidden="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="5"/>
@@ -572,11 +583,19 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B11:B2000">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>WEEKDAY(B11,2)=7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>